--- a/mitochondrial_genomes_tree/seqid_map.xlsx
+++ b/mitochondrial_genomes_tree/seqid_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirstengotting/Library/Mobile Documents/com~apple~CloudDocs/Posters/2019 Raper Symposium/Figures/mitochondrial_genomes_tree/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirstengotting/GoogleDriveLab/Figures/EscoEvoGenomics/mitochondrial_genomes_tree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F0E45CE5-6B30-1744-B4B6-1539549EFDA9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C88A63-83D4-6D49-B179-D9854E1539A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12960" yWindow="6580" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="6220" yWindow="12480" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="seqid_map" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">seqid_map!$A$1:$N$25</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -316,7 +324,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1150,12 +1158,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1165,7 +1173,7 @@
     <col min="10" max="10" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1187,8 +1195,15 @@
       <c r="N1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1">
+        <v>72663</v>
+      </c>
+      <c r="P1">
+        <f>ROUND(O1/1000, 2)</f>
+        <v>72.66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1226,14 +1241,21 @@
         <v>22.14</v>
       </c>
       <c r="M2">
-        <f>ROUND(L2, 1)</f>
+        <f t="shared" ref="M2:M22" si="0">ROUND(L2, 1)</f>
         <v>22.1</v>
       </c>
       <c r="N2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <v>9092</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P22" si="1">ROUND(O2/1000, 2)</f>
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1271,14 +1293,21 @@
         <v>25.36</v>
       </c>
       <c r="M3">
-        <f>ROUND(L3, 1)</f>
+        <f t="shared" si="0"/>
         <v>25.4</v>
       </c>
       <c r="N3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>84034</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="1"/>
+        <v>84.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1316,14 +1345,21 @@
         <v>31.71</v>
       </c>
       <c r="M4">
-        <f>ROUND(L4, 1)</f>
+        <f t="shared" si="0"/>
         <v>31.7</v>
       </c>
       <c r="N4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>74344</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>74.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -1358,14 +1394,21 @@
         <v>77</v>
       </c>
       <c r="M5">
-        <f>ROUND(L5, 1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>52263</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>52.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1403,14 +1446,21 @@
         <v>25.57</v>
       </c>
       <c r="M6">
-        <f>ROUND(L6, 1)</f>
+        <f t="shared" si="0"/>
         <v>25.6</v>
       </c>
       <c r="N6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>57441</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>57.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1448,14 +1498,21 @@
         <v>29.06</v>
       </c>
       <c r="M7">
-        <f>ROUND(L7, 1)</f>
+        <f t="shared" si="0"/>
         <v>29.1</v>
       </c>
       <c r="N7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>80329</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>80.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1490,14 +1547,21 @@
         <v>83</v>
       </c>
       <c r="M8">
-        <f>ROUND(L8, 1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>43589</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>43.59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1532,14 +1596,21 @@
         <v>83</v>
       </c>
       <c r="M9">
-        <f>ROUND(L9, 1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>80329</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>80.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1574,14 +1645,21 @@
         <v>77</v>
       </c>
       <c r="M10">
-        <f>ROUND(L10, 1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <v>77998</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1619,14 +1697,21 @@
         <v>30.72</v>
       </c>
       <c r="M11">
-        <f>ROUND(L11, 1)</f>
+        <f t="shared" si="0"/>
         <v>30.7</v>
       </c>
       <c r="N11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <v>49994</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1664,14 +1749,21 @@
         <v>30.72</v>
       </c>
       <c r="M12">
-        <f>ROUND(L12, 1)</f>
+        <f t="shared" si="0"/>
         <v>30.7</v>
       </c>
       <c r="N12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <v>56844</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>56.84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1709,14 +1801,21 @@
         <v>23.22</v>
       </c>
       <c r="M13">
-        <f>ROUND(L13, 1)</f>
+        <f t="shared" si="0"/>
         <v>23.2</v>
       </c>
       <c r="N13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <v>65189</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>65.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -1751,14 +1850,21 @@
         <v>86</v>
       </c>
       <c r="M14">
-        <f>ROUND(L14, 1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N14" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <v>75436</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>75.44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1796,14 +1902,21 @@
         <v>29.13</v>
       </c>
       <c r="M15">
-        <f>ROUND(L15, 1)</f>
+        <f t="shared" si="0"/>
         <v>29.1</v>
       </c>
       <c r="N15" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <v>56532</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>56.53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1841,14 +1954,21 @@
         <v>27.31</v>
       </c>
       <c r="M16">
-        <f>ROUND(L16, 1)</f>
+        <f t="shared" si="0"/>
         <v>27.3</v>
       </c>
       <c r="N16" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <v>48264</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>48.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1886,14 +2006,21 @@
         <v>30.19</v>
       </c>
       <c r="M17">
-        <f>ROUND(L17, 1)</f>
+        <f t="shared" si="0"/>
         <v>30.2</v>
       </c>
       <c r="N17" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <v>46790</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>46.79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1931,14 +2058,21 @@
         <v>29.69</v>
       </c>
       <c r="M18">
-        <f>ROUND(L18, 1)</f>
+        <f t="shared" si="0"/>
         <v>29.7</v>
       </c>
       <c r="N18" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <v>50312</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>50.31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -1976,14 +2110,21 @@
         <v>29.04</v>
       </c>
       <c r="M19">
-        <f>ROUND(L19, 1)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="N19" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <v>39716</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>39.72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2021,14 +2162,21 @@
         <v>27.38</v>
       </c>
       <c r="M20">
-        <f>ROUND(L20, 1)</f>
+        <f t="shared" si="0"/>
         <v>27.4</v>
       </c>
       <c r="N20" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <v>50406</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>50.41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -2063,14 +2211,21 @@
         <v>83</v>
       </c>
       <c r="M21">
-        <f>ROUND(L21, 1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N21" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <v>51311</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>51.31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2108,14 +2263,21 @@
         <v>29.98</v>
       </c>
       <c r="M22">
-        <f>ROUND(L22, 1)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="N22" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <v>57262</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>57.26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2138,7 +2300,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -2161,7 +2323,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2185,7 +2347,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N25">
+  <autoFilter ref="A1:N25" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="Escovopsis"/>
